--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2135452.382484628</v>
+        <v>2250886.473226081</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>19.72734108435045</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>150.145088205776</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>13.09783323005805</v>
+      </c>
+      <c r="H2" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="V3" t="n">
-        <v>144.0233207473734</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>188.883754775173</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>89.58233480792701</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>188.883754775173</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>188.883754775173</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76.78647639804527</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>62.34977884774512</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>70.45509092879784</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1612745908962</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074786</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7235338505417</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>188.883754775173</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>90.01795228275945</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1105,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>45.66399984503904</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.45534151883412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>77.22207674030111</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>238.6591887249604</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,10 +1277,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>118.9054721956492</v>
       </c>
     </row>
     <row r="10">
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.57567088453384</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>220.013305673653</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5271979141365</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>121.8000472740347</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>32.4720786658923</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>20.88994825141578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>125.2851635392052</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>114.720561100775</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>197.5531614304986</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8913819999793</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>61.97958965902562</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2764,16 +2766,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.8244908215239</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>71.39698738222812</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444126</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.32649042089668</v>
+        <v>3.453391420151112</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.6041077643461</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>83.29550035394011</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701343</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>174.9868265178721</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>57.82449082152367</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.85274231757755</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>14.53306611597401</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>82.85993176807962</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819421</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892427694</v>
+        <v>130.7323655469549</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097407</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="C2" t="n">
-        <v>482.8222414097407</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="D2" t="n">
-        <v>482.8222414097407</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="E2" t="n">
-        <v>482.8222414097407</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="F2" t="n">
+        <v>344.3906707271973</v>
+      </c>
+      <c r="G2" t="n">
         <v>331.1605361513811</v>
-      </c>
-      <c r="G2" t="n">
-        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
@@ -4328,52 +4330,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262255</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262255</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262255</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262255</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262255</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262255</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262255</v>
+        <v>560.6825636487952</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
         <v>15.0020469733056</v>
@@ -4410,49 +4412,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198761</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198761</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U3" t="n">
-        <v>409.3994882033913</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="V3" t="n">
-        <v>263.9213864383677</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W3" t="n">
-        <v>263.9213864383677</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="X3" t="n">
-        <v>74.50160142188287</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="Y3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F4" t="n">
         <v>15.0020469733056</v>
@@ -4495,7 +4497,7 @@
         <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170722</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
         <v>66.41847329396343</v>
@@ -4507,31 +4509,31 @@
         <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>677.972921728929</v>
+        <v>781.1074137586279</v>
       </c>
       <c r="C5" t="n">
-        <v>677.972921728929</v>
+        <v>412.1448968182161</v>
       </c>
       <c r="D5" t="n">
-        <v>487.1812502388553</v>
+        <v>53.87919821146563</v>
       </c>
       <c r="E5" t="n">
-        <v>396.6940433621613</v>
+        <v>53.87919821146563</v>
       </c>
       <c r="F5" t="n">
-        <v>205.9023718720876</v>
+        <v>46.93369746226217</v>
       </c>
       <c r="G5" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="H5" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="I5" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J5" t="n">
-        <v>21.53729092590578</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>81.90760247543756</v>
+        <v>277.9807166746987</v>
       </c>
       <c r="L5" t="n">
-        <v>193.7040741186836</v>
+        <v>521.2049416030778</v>
       </c>
       <c r="M5" t="n">
-        <v>349.7686271398467</v>
+        <v>823.5081935709202</v>
       </c>
       <c r="N5" t="n">
-        <v>512.9722761681921</v>
+        <v>1135.316836582755</v>
       </c>
       <c r="O5" t="n">
-        <v>653.7455927875806</v>
+        <v>1416.413635079243</v>
       </c>
       <c r="P5" t="n">
-        <v>739.3913607574868</v>
+        <v>1621.822248332761</v>
       </c>
       <c r="Q5" t="n">
-        <v>755.5350191006919</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="R5" t="n">
-        <v>677.972921728929</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="S5" t="n">
-        <v>677.972921728929</v>
+        <v>1586.994975598236</v>
       </c>
       <c r="T5" t="n">
-        <v>677.972921728929</v>
+        <v>1586.994975598236</v>
       </c>
       <c r="U5" t="n">
-        <v>677.972921728929</v>
+        <v>1586.994975598236</v>
       </c>
       <c r="V5" t="n">
-        <v>677.972921728929</v>
+        <v>1586.994975598236</v>
       </c>
       <c r="W5" t="n">
-        <v>677.972921728929</v>
+        <v>1234.226320328122</v>
       </c>
       <c r="X5" t="n">
-        <v>677.972921728929</v>
+        <v>1171.24674573444</v>
       </c>
       <c r="Y5" t="n">
-        <v>677.972921728929</v>
+        <v>781.1074137586279</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152.6473413829191</v>
+        <v>391.7412113779864</v>
       </c>
       <c r="C6" t="n">
-        <v>152.6473413829191</v>
+        <v>391.7412113779864</v>
       </c>
       <c r="D6" t="n">
-        <v>152.6473413829191</v>
+        <v>242.8068017167352</v>
       </c>
       <c r="E6" t="n">
-        <v>152.6473413829191</v>
+        <v>242.8068017167352</v>
       </c>
       <c r="F6" t="n">
-        <v>152.6473413829191</v>
+        <v>171.6400432027979</v>
       </c>
       <c r="G6" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="H6" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="I6" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J6" t="n">
-        <v>15.11070038201384</v>
+        <v>61.66788464787555</v>
       </c>
       <c r="K6" t="n">
-        <v>67.64486236340974</v>
+        <v>186.1577239806068</v>
       </c>
       <c r="L6" t="n">
-        <v>184.6060674208104</v>
+        <v>399.8722171189987</v>
       </c>
       <c r="M6" t="n">
-        <v>340.4511451914216</v>
+        <v>668.6238185223514</v>
       </c>
       <c r="N6" t="n">
-        <v>514.8296233548663</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>652.1320680747624</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>742.9963185165512</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>753.8174671994257</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>753.8174671994257</v>
+        <v>1401.100270703776</v>
       </c>
       <c r="S6" t="n">
-        <v>602.5815744211008</v>
+        <v>1258.309378699372</v>
       </c>
       <c r="T6" t="n">
-        <v>602.5815744211008</v>
+        <v>1062.768760419127</v>
       </c>
       <c r="U6" t="n">
-        <v>411.789902931027</v>
+        <v>834.6536183746831</v>
       </c>
       <c r="V6" t="n">
-        <v>411.789902931027</v>
+        <v>599.5015101429403</v>
       </c>
       <c r="W6" t="n">
-        <v>411.789902931027</v>
+        <v>599.5015101429403</v>
       </c>
       <c r="X6" t="n">
-        <v>411.789902931027</v>
+        <v>599.5015101429403</v>
       </c>
       <c r="Y6" t="n">
-        <v>320.8626784029872</v>
+        <v>391.7412113779864</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="C7" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="D7" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="E7" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="F7" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="G7" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="H7" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="I7" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J7" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="K7" t="n">
-        <v>15.11070038201384</v>
+        <v>64.24066662574714</v>
       </c>
       <c r="L7" t="n">
-        <v>27.45863662426344</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>43.73608709748012</v>
+        <v>206.9680378347978</v>
       </c>
       <c r="N7" t="n">
-        <v>67.48402208628242</v>
+        <v>287.8841338195375</v>
       </c>
       <c r="O7" t="n">
-        <v>69.10599484548266</v>
+        <v>342.3101561934727</v>
       </c>
       <c r="P7" t="n">
-        <v>69.10599484548266</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.10599484548266</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="R7" t="n">
-        <v>69.10599484548266</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="S7" t="n">
-        <v>69.10599484548266</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="T7" t="n">
-        <v>69.10599484548266</v>
+        <v>323.6937972170753</v>
       </c>
       <c r="U7" t="n">
-        <v>69.10599484548266</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="V7" t="n">
-        <v>69.10599484548266</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="W7" t="n">
-        <v>69.10599484548266</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="X7" t="n">
-        <v>69.10599484548266</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.11070038201384</v>
+        <v>34.55805631675775</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>420.5710371502357</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>420.5710371502357</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>888.7124668435233</v>
       </c>
       <c r="X8" t="n">
-        <v>2972.837166339057</v>
+        <v>888.7124668435233</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>498.5731348677116</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>1023.68223698826</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>849.2292077071329</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>700.2947980458816</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>541.0573430404262</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>541.0573430404262</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>541.0573430404262</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>445.6019761092593</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>445.6019761092593</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>491.7863446767894</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>648.8776114216182</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>906.4287469816059</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1226.335642450115</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1569.118166444747</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1860.477412699312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2074.985828260213</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1801.393576539635</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1566.241468307892</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1312.004111579691</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1312.004111579691</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1191.897574008328</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>639.3706644025392</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>639.3706644025392</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>639.3706644025392</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025392</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>639.3706644025392</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>639.3706644025392</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="W10" t="n">
-        <v>639.3706644025392</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="X10" t="n">
-        <v>639.3706644025392</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>639.3706644025392</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277355</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,19 +5518,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D19" t="n">
-        <v>323.8164599824514</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
         <v>175.9033664000583</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5837,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290469</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
         <v>549.6145409888043</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2331.083728933013</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2111.482263955954</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1822.407037300152</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1567.722549094265</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W22" t="n">
-        <v>1278.305379057304</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X22" t="n">
-        <v>1050.315828159287</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159287</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>2389.334518447046</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>2884.660124662805</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558405</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="C25" t="n">
-        <v>2757.723669558405</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="D25" t="n">
-        <v>2757.723669558405</v>
+        <v>2862.291518351956</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.772778649335</v>
+        <v>2714.378424769563</v>
       </c>
       <c r="F25" t="n">
-        <v>2504.882831151424</v>
+        <v>2567.488477271652</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>2400.292377986532</v>
       </c>
       <c r="H25" t="n">
         <v>2337.686731866304</v>
@@ -6181,16 +6183,16 @@
         <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>3194.056622594531</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6226,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>1963.765362972544</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811333</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
         <v>631.7012443408906</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2138.653968900169</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W28" t="n">
-        <v>1581.18466155292</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.195110654903</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6451,25 @@
         <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6482,16 +6484,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6552,13 +6554,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6682,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>724.7519863413023</v>
+        <v>1089.917939501689</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133954</v>
+        <v>920.9817565737817</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>770.8651171614459</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>622.9520235790528</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>476.0620760811424</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>308.8659767960224</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>167.1541456382205</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6888,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="X34" t="n">
-        <v>1127.193030315072</v>
+        <v>1492.358983475458</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.400451171542</v>
+        <v>1271.566404331928</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,16 +6970,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015258</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7202,7 +7204,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7251,16 +7253,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
         <v>1344.266747951538</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="Y40" t="n">
-        <v>1166.195182806534</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7889117913853</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400664</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121596</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>40.30478226780076</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>24.63391537253447</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>253.7123957233518</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>55.74112246243936</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>66.30572490086956</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>28.1564939585385</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24369,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>41.54258064658984</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>78.31512318719827</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24652,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>159.5809595057644</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>215.1260109543629</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.5054897610406</v>
+        <v>176.3785887617862</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>8.661728554219437</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.845153664065208</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>109.4223302771042</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>112.9792378643597</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>211.1765892730631</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.75554125013274</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393541</v>
+        <v>17.88310747125746</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822395.1988153139</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982124</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675044</v>
@@ -26332,28 +26334,28 @@
         <v>605359.9497675045</v>
       </c>
       <c r="I2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>1503.414218520356</v>
+        <v>270592.3620253131</v>
       </c>
       <c r="D3" t="n">
-        <v>662166.6844385726</v>
+        <v>115410.0540231921</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285447</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>349.5488811553368</v>
+        <v>62913.63765881985</v>
       </c>
       <c r="L3" t="n">
-        <v>162615.4473694184</v>
+        <v>27875.25362197471</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>278136.727044445</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26436,28 +26438,28 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="N4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16046.58397189202</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189187</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>57093.86446622584</v>
+        <v>76435.73471936825</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311097.9403683762</v>
+        <v>-311097.9403683763</v>
       </c>
       <c r="C6" t="n">
-        <v>279047.3216690212</v>
+        <v>62148.80772718522</v>
       </c>
       <c r="D6" t="n">
-        <v>-247916.0417058063</v>
+        <v>240969.2014302503</v>
       </c>
       <c r="E6" t="n">
-        <v>162778.3741643502</v>
+        <v>-113252.37160256</v>
       </c>
       <c r="F6" t="n">
-        <v>488190.8359717054</v>
+        <v>488190.8359717058</v>
       </c>
       <c r="G6" t="n">
+        <v>488190.8359717052</v>
+      </c>
+      <c r="H6" t="n">
         <v>488190.8359717053</v>
       </c>
-      <c r="H6" t="n">
-        <v>488190.8359717054</v>
-      </c>
       <c r="I6" t="n">
-        <v>488190.8359717055</v>
+        <v>488190.8359717052</v>
       </c>
       <c r="J6" t="n">
-        <v>439125.8912431606</v>
+        <v>439125.8912431609</v>
       </c>
       <c r="K6" t="n">
-        <v>487841.2870905495</v>
+        <v>425277.1983128854</v>
       </c>
       <c r="L6" t="n">
-        <v>325575.3886022867</v>
+        <v>460315.5823497306</v>
       </c>
       <c r="M6" t="n">
-        <v>403135.8080361937</v>
+        <v>331044.4554201072</v>
       </c>
       <c r="N6" t="n">
-        <v>488190.835971705</v>
+        <v>488190.8359717051</v>
       </c>
       <c r="O6" t="n">
-        <v>488190.8359717049</v>
+        <v>488190.8359717052</v>
       </c>
       <c r="P6" t="n">
-        <v>488190.8359717054</v>
+        <v>488190.8359717051</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26738,10 +26740,10 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>549.6390906374004</v>
+        <v>758.8996292950623</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>188.883754775173</v>
+        <v>431.9757039594719</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>1.169149724495696</v>
+        <v>210.4296883821576</v>
       </c>
       <c r="D3" t="n">
-        <v>540.1376099558979</v>
+        <v>94.81103524262187</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>1.358167608853023</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="D4" t="n">
-        <v>642.5177006271199</v>
+        <v>110.1392527666913</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608853023</v>
+        <v>244.4501167931517</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271199</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608853023</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271199</v>
+        <v>110.1392527666913</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>334.9557005363325</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>256.7309575359354</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27433,7 +27435,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871033</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27476,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>15.37922103265838</v>
@@ -27506,25 +27508,25 @@
         <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>88.77726640205191</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715752</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>40.51015860120972</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849672</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27579,7 +27581,7 @@
         <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.4700942971627</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>165.79928684551</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>292.3480352643348</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>217.9922909665385</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>224.2093783554901</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8456912132937</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>125.2901165380506</v>
+        <v>92.85788772760031</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425892</v>
       </c>
       <c r="S5" t="n">
-        <v>158.6687096750905</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4233063711054</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1688845570787</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>307.3813218307239</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>74.61412146458603</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8174699196705</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>58.81797564619251</v>
+        <v>43.3208508493751</v>
       </c>
       <c r="J6" t="n">
-        <v>15.14162995515495</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.27675899167109</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.3994614844841</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>36.97984818920222</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>115.6647434945449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9998268999323</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4149261034498</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>125.6438173562989</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>56.92094262157542</v>
+        <v>30.24193919304041</v>
       </c>
       <c r="K7" t="n">
-        <v>13.85936344355218</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>17.85261942882022</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.50949894319838</v>
+        <v>36.91115760589145</v>
       </c>
       <c r="R7" t="n">
-        <v>132.7275726510616</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7435138279248</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7106652873048</v>
+        <v>176.4343301444117</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2649664951167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.1293118332607</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>305.5117649231795</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>147.5787499310932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27941,16 +27943,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27995,10 +27997,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>86.77722358165512</v>
       </c>
     </row>
     <row r="10">
@@ -28017,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.8582917620353</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>5.696349715384201</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29527,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30043,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>5.785973998768142e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.20960438447196</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
-        <v>22.62911090247346</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>85.18577303235531</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5374101265772</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>281.0699637212753</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>348.6921439025591</v>
+        <v>481.4474502511781</v>
       </c>
       <c r="M5" t="n">
-        <v>387.9871958749123</v>
+        <v>535.7030533968104</v>
       </c>
       <c r="N5" t="n">
-        <v>394.2652343322933</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>372.2934807342002</v>
+        <v>514.0343715191494</v>
       </c>
       <c r="P5" t="n">
-        <v>317.7438724925486</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.6124154736465</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>138.7990614160869</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>50.35135991115483</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>9.672543193026009</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1767683507577567</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.182242572314408</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>11.417974316826</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>40.70440435380749</v>
+        <v>56.2015291506249</v>
       </c>
       <c r="J6" t="n">
-        <v>111.6959967115117</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>190.9062490565771</v>
+        <v>263.5887514316633</v>
       </c>
       <c r="L6" t="n">
-        <v>256.6970111509859</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>299.5533043973832</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>307.4815890161057</v>
+        <v>424.547067146867</v>
       </c>
       <c r="O6" t="n">
-        <v>281.2855825453496</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>225.7564785676523</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.9122273010462</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>73.40274497229287</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>21.95963725329612</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>4.76526721033746</v>
+        <v>6.579516597378887</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07777911659963216</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9911524585264596</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>8.812246403989802</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>29.80665757095936</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>70.07447881782069</v>
+        <v>96.7534822463557</v>
       </c>
       <c r="K7" t="n">
-        <v>115.1538947269832</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>147.3573391521975</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>155.3676531124704</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>151.6733575852355</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>140.0948947742673</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>119.8753846203274</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.99550268624746</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>44.56581872610789</v>
+        <v>61.53307486054716</v>
       </c>
       <c r="S7" t="n">
-        <v>17.27308420904748</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>4.23492414097669</v>
+        <v>5.847259438830806</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05406286137417059</v>
+        <v>0.07464586517656358</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038093</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32087,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32315,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,7 +32557,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>574.6535388222619</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093083</v>
       </c>
       <c r="L24" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>493.6049778318539</v>
+        <v>399.0581126127094</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33272,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>558.3177848342789</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,19 +33973,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34374,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34448,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N45" t="n">
-        <v>705.9257335045849</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.491505599890871</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>60.98011267629471</v>
+        <v>167.9900634070467</v>
       </c>
       <c r="L5" t="n">
-        <v>112.9257289325718</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>157.6409626476396</v>
+        <v>305.3568201695377</v>
       </c>
       <c r="N5" t="n">
-        <v>164.8521707357024</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>142.1952693125134</v>
+        <v>283.9361600974627</v>
       </c>
       <c r="P5" t="n">
-        <v>86.51087673727909</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.30672559919702</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>53.06481008221809</v>
+        <v>125.7473124573043</v>
       </c>
       <c r="L6" t="n">
-        <v>118.1426313711117</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4192704753648</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
-        <v>176.1398769327724</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>138.6893381009052</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>91.78207115332202</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.93045321502473</v>
+        <v>68.38629016872844</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>12.4726628709592</v>
+        <v>68.57507023501498</v>
       </c>
       <c r="M7" t="n">
-        <v>16.44186916486532</v>
+        <v>75.59399159230898</v>
       </c>
       <c r="N7" t="n">
-        <v>23.98781312000233</v>
+        <v>81.73343028761582</v>
       </c>
       <c r="O7" t="n">
-        <v>1.638356322424471</v>
+        <v>54.97578017569214</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204761</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>432.0572943778175</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="L24" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>359.6305704175236</v>
+        <v>265.0837051983791</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36920,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,19 +37150,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317321</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38096,16 +38098,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N45" t="n">
-        <v>574.5840214212516</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2250886.473226081</v>
+        <v>2246581.35022901</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>19.72734108435045</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>143.2690424640647</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>111.0567566117637</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404937</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425946</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>127.1471025981437</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>62.34977884774512</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>70.45509092879784</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074786</v>
+        <v>14.56939904994083</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>37.87186229520668</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>45.66399984503904</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.22207674030111</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>36.88688096669654</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,13 +1223,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>92.24247811687005</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -1274,13 +1274,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>118.9054721956492</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>12.01748395153031</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>220.013305673653</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518788</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.5271979141365</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722621</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>115.4764219077088</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>32.4720786658923</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,13 +1903,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
-        <v>125.2851635392052</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960838</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>197.5531614304986</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H25" t="n">
-        <v>61.97958965902562</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>57.8244908215239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>86.88943397770137</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.453391420151112</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I34" t="n">
-        <v>72.6041077643461</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3322,10 +3322,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701343</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.82449082152367</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>240.0888870346036</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>14.53306611597401</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>82.85993176807962</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>130.7323655469549</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>178.2892930985867</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487952</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="C2" t="n">
-        <v>371.2627786323103</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="D2" t="n">
-        <v>351.3361714764008</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="E2" t="n">
-        <v>351.3361714764008</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="F2" t="n">
-        <v>344.3906707271973</v>
+        <v>475.8767406605374</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>286.4569556440525</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
@@ -4354,28 +4354,28 @@
         <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="T2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487952</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487952</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487952</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487952</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487952</v>
+        <v>482.8222414097409</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
         <v>15.0020469733056</v>
@@ -4418,7 +4418,7 @@
         <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546605</v>
@@ -4439,22 +4439,22 @@
         <v>750.10234866528</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487952</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487952</v>
+        <v>637.9238066331955</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323103</v>
+        <v>637.9238066331955</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323103</v>
+        <v>637.9238066331955</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158254</v>
+        <v>637.9238066331955</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>637.9238066331955</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.1074137586279</v>
+        <v>1185.147817799032</v>
       </c>
       <c r="C5" t="n">
-        <v>412.1448968182161</v>
+        <v>816.1853008586201</v>
       </c>
       <c r="D5" t="n">
-        <v>53.87919821146563</v>
+        <v>457.9196022518695</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146563</v>
+        <v>457.9196022518695</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226217</v>
+        <v>46.93369746226197</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017225</v>
+        <v>111.670553901721</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746987</v>
+        <v>277.9807166746961</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030778</v>
+        <v>521.2049416030736</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709202</v>
+        <v>823.5081935709144</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582755</v>
+        <v>1135.316836582747</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079243</v>
+        <v>1416.413635079234</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332761</v>
+        <v>1621.822248332752</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837888</v>
+        <v>1727.902815837877</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837888</v>
+        <v>1703.718566540645</v>
       </c>
       <c r="S5" t="n">
-        <v>1586.994975598236</v>
+        <v>1703.718566540645</v>
       </c>
       <c r="T5" t="n">
-        <v>1586.994975598236</v>
+        <v>1703.718566540645</v>
       </c>
       <c r="U5" t="n">
-        <v>1586.994975598236</v>
+        <v>1575.287149774844</v>
       </c>
       <c r="V5" t="n">
-        <v>1586.994975598236</v>
+        <v>1575.287149774844</v>
       </c>
       <c r="W5" t="n">
-        <v>1234.226320328122</v>
+        <v>1575.287149774844</v>
       </c>
       <c r="X5" t="n">
-        <v>1171.24674573444</v>
+        <v>1575.287149774844</v>
       </c>
       <c r="Y5" t="n">
-        <v>781.1074137586279</v>
+        <v>1185.147817799032</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>391.7412113779864</v>
+        <v>357.9454952591358</v>
       </c>
       <c r="C6" t="n">
-        <v>391.7412113779864</v>
+        <v>183.4924659780088</v>
       </c>
       <c r="D6" t="n">
-        <v>242.8068017167352</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="E6" t="n">
-        <v>242.8068017167352</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6400432027979</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787555</v>
+        <v>61.6678846478749</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806068</v>
+        <v>186.1577239806054</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189987</v>
+        <v>399.8722171189963</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223514</v>
+        <v>668.6238185223478</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352498</v>
+        <v>958.8971200352451</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.220686228315</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639504</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906545</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703776</v>
+        <v>1431.162096209635</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699372</v>
+        <v>1431.162096209635</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419127</v>
+        <v>1431.162096209635</v>
       </c>
       <c r="U6" t="n">
-        <v>834.6536183746831</v>
+        <v>1431.162096209635</v>
       </c>
       <c r="V6" t="n">
-        <v>599.5015101429403</v>
+        <v>1196.009987977892</v>
       </c>
       <c r="W6" t="n">
-        <v>599.5015101429403</v>
+        <v>941.7726312496904</v>
       </c>
       <c r="X6" t="n">
-        <v>599.5015101429403</v>
+        <v>733.9211310441576</v>
       </c>
       <c r="Y6" t="n">
-        <v>391.7412113779864</v>
+        <v>526.1608322792038</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675775</v>
+        <v>369.8190495857983</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675775</v>
+        <v>369.8190495857983</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675775</v>
+        <v>219.7024101734625</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675775</v>
+        <v>181.4480038146679</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574714</v>
+        <v>64.24066662574648</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158412</v>
+        <v>132.1299861584108</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347978</v>
+        <v>206.968037834796</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195375</v>
+        <v>287.8841338195351</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934727</v>
+        <v>342.3101561934698</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495857983</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495857983</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495857983</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495857983</v>
       </c>
       <c r="T7" t="n">
-        <v>323.6937972170753</v>
+        <v>369.8190495857983</v>
       </c>
       <c r="U7" t="n">
-        <v>34.55805631675775</v>
+        <v>369.8190495857983</v>
       </c>
       <c r="V7" t="n">
-        <v>34.55805631675775</v>
+        <v>369.8190495857983</v>
       </c>
       <c r="W7" t="n">
-        <v>34.55805631675775</v>
+        <v>369.8190495857983</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675775</v>
+        <v>369.8190495857983</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675775</v>
+        <v>369.8190495857983</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>420.5710371502357</v>
+        <v>854.8812820495157</v>
       </c>
       <c r="C8" t="n">
-        <v>420.5710371502357</v>
+        <v>485.918765109104</v>
       </c>
       <c r="D8" t="n">
-        <v>62.30533854348519</v>
+        <v>448.6592893851681</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>448.6592893851681</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>441.7137886359646</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
@@ -4843,13 +4843,13 @@
         <v>1241.481122113637</v>
       </c>
       <c r="W8" t="n">
-        <v>888.7124668435233</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="X8" t="n">
-        <v>888.7124668435233</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="Y8" t="n">
-        <v>498.5731348677116</v>
+        <v>1241.481122113637</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1023.68223698826</v>
+        <v>756.0443045908817</v>
       </c>
       <c r="C9" t="n">
-        <v>849.2292077071329</v>
+        <v>581.5912753097547</v>
       </c>
       <c r="D9" t="n">
-        <v>700.2947980458816</v>
+        <v>432.6568656485034</v>
       </c>
       <c r="E9" t="n">
-        <v>541.0573430404262</v>
+        <v>273.4194106430479</v>
       </c>
       <c r="F9" t="n">
-        <v>541.0573430404262</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>541.0573430404262</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>445.6019761092593</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>445.6019761092593</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>491.7863446767894</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>648.8776114216182</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>906.4287469816059</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>1226.335642450115</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1569.118166444747</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.477412699312</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2074.985828260213</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904653</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406371</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.495166406371</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="U9" t="n">
-        <v>1801.393576539635</v>
+        <v>1367.172048607646</v>
       </c>
       <c r="V9" t="n">
-        <v>1566.241468307892</v>
+        <v>1132.019940375904</v>
       </c>
       <c r="W9" t="n">
-        <v>1312.004111579691</v>
+        <v>1132.019940375904</v>
       </c>
       <c r="X9" t="n">
-        <v>1312.004111579691</v>
+        <v>1132.019940375904</v>
       </c>
       <c r="Y9" t="n">
-        <v>1191.897574008328</v>
+        <v>924.2596416109498</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>242.7819383455652</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>73.84575541765827</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>73.84575541765827</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -4983,31 +4983,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>265.6048588347122</v>
+        <v>242.7819383455652</v>
       </c>
       <c r="W10" t="n">
-        <v>265.6048588347122</v>
+        <v>242.7819383455652</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>242.7819383455652</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>242.7819383455652</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>740.5562989961526</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2443.925817935984</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854707</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.396302956689</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.603723813159</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>696.7084350851617</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>527.7722521572548</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>377.655612744919</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>377.655612744919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855599</v>
       </c>
       <c r="U16" t="n">
-        <v>1944.661001050011</v>
+        <v>1871.240688199797</v>
       </c>
       <c r="V16" t="n">
-        <v>1689.976512844124</v>
+        <v>1616.55619999391</v>
       </c>
       <c r="W16" t="n">
-        <v>1400.559342807163</v>
+        <v>1327.139029956949</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.569791909146</v>
+        <v>1099.149479058932</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.777212765616</v>
+        <v>878.3568999154014</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,46 +5518,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5606,10 +5606,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2253.366709591041</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2253.366709591041</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1964.291482935239</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.606994729352</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692392</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,22 +5770,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1618.570148794804</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,19 +6001,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2389.334518447046</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2884.660124662805</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3482.038612289356</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3012.408157764291</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>3012.408157764291</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>2862.291518351956</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>2714.378424769563</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>2567.488477271652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>2400.292377986532</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>3194.056622594531</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,13 +6205,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2138.653968900169</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1849.578742244367</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6554,13 +6554,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6791,16 +6791,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1089.917939501689</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>920.9817565737817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>770.8651171614459</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>622.9520235790528</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>476.0620760811424</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>308.8659767960224</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>167.1541456382205</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1720.348534373476</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1492.358983475458</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1271.566404331928</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6937,7 +6937,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6970,7 +6970,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -7025,19 +7025,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>988.1395539230172</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.987318831765</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.570148794804</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.580597896787</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y37" t="n">
-        <v>1169.788018753257</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3260.450525729772</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>3091.514342801865</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3677.571434467152</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3662.891569703542</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3442.098990560012</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7666,22 +7666,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7736,16 +7736,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C46" t="n">
-        <v>763.7541388327643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2016.97235043849</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1727.897123782688</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1473.212635576801</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.30478226780076</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>63.36835372228709</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>29.94462611522241</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>253.7123957233518</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
-        <v>55.74112246243936</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.5874149221285734</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>28.1564939585385</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H25" t="n">
-        <v>78.31512318719827</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>159.5809595057644</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>138.8202214113358</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>176.3785887617862</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I34" t="n">
-        <v>8.661728554219437</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>109.4223302771042</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>12.0487562892244</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>211.1765892730631</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.75554125013274</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>17.88310747125746</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>39.11615722870158</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.1988153139</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.327398212</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675047</v>
-      </c>
       <c r="G2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.949767504</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.949767504</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253131</v>
+        <v>270592.3620253103</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231921</v>
+        <v>115410.0540231947</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742653</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854462</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881985</v>
+        <v>62913.63765881921</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197471</v>
+        <v>27875.25362197536</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26420,16 +26420,16 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263468</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189187</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189186</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26438,19 +26438,19 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="M4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16046.58397189204</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.583971892</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26472,7 +26472,7 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936825</v>
+        <v>76435.73471936803</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311097.9403683763</v>
+        <v>-311097.9403683764</v>
       </c>
       <c r="C6" t="n">
-        <v>62148.80772718522</v>
+        <v>62148.80772718748</v>
       </c>
       <c r="D6" t="n">
-        <v>240969.2014302503</v>
+        <v>240969.2014302474</v>
       </c>
       <c r="E6" t="n">
-        <v>-113252.37160256</v>
+        <v>-113599.750856917</v>
       </c>
       <c r="F6" t="n">
-        <v>488190.8359717058</v>
+        <v>487843.4567173484</v>
       </c>
       <c r="G6" t="n">
-        <v>488190.8359717052</v>
+        <v>487843.4567173481</v>
       </c>
       <c r="H6" t="n">
-        <v>488190.8359717053</v>
+        <v>487843.4567173479</v>
       </c>
       <c r="I6" t="n">
-        <v>488190.8359717052</v>
+        <v>487843.456717348</v>
       </c>
       <c r="J6" t="n">
-        <v>439125.8912431609</v>
+        <v>438778.5119888035</v>
       </c>
       <c r="K6" t="n">
-        <v>425277.1983128854</v>
+        <v>424929.8190585288</v>
       </c>
       <c r="L6" t="n">
-        <v>460315.5823497306</v>
+        <v>459968.2030953727</v>
       </c>
       <c r="M6" t="n">
-        <v>331044.4554201072</v>
+        <v>330697.0761657499</v>
       </c>
       <c r="N6" t="n">
-        <v>488190.8359717051</v>
+        <v>487843.4567173479</v>
       </c>
       <c r="O6" t="n">
-        <v>488190.8359717052</v>
+        <v>487843.4567173479</v>
       </c>
       <c r="P6" t="n">
-        <v>488190.8359717051</v>
+        <v>487843.4567173479</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950623</v>
+        <v>758.8996292950601</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26792,34 +26792,34 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594719</v>
+        <v>431.9757039594693</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821576</v>
+        <v>210.4296883821554</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262187</v>
+        <v>94.81103524262403</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039899</v>
@@ -27014,13 +27014,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931493</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666913</v>
+        <v>110.1392527666939</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,10 +27038,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931517</v>
+        <v>244.450116793149</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666915</v>
+        <v>110.1392527666941</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27260,13 +27260,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931493</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666913</v>
+        <v>110.1392527666939</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>334.9557005363325</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>173.6247836421575</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27435,7 +27435,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871033</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27511,22 +27511,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681213</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>114.8070117983272</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715747</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.51015860120972</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760031</v>
+        <v>92.85788772760064</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425892</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>123.954482087206</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3813218307239</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>74.61412146458603</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>96.47037835246134</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493751</v>
+        <v>43.32085084937525</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.76120725080732</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>108.5621003513625</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304041</v>
+        <v>30.24193919304068</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589145</v>
+        <v>36.91115760589177</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>176.4343301444117</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>305.5117649231795</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>317.7961606539864</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27943,13 +27943,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>52.82673427651383</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
         <v>36.29946757904885</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27994,13 +27994,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.77722358165512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>134.4164786950388</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>5.696349715384201</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.357833993573971e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-5.611981708032941e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-5.439862627652621e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-7.382758598940444e-14</v>
       </c>
     </row>
     <row r="18">
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-9.28537247091299e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>5.785973998768142e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085675</v>
+        <v>3.050852781085666</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429368</v>
+        <v>31.24454604429359</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428053</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.9373162286698</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520273</v>
+        <v>388.0799144520262</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511781</v>
+        <v>481.4474502511767</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968104</v>
+        <v>535.7030533968089</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610702</v>
+        <v>544.3712888610686</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191494</v>
+        <v>514.034371519148</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860968</v>
+        <v>438.7164434860955</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634659</v>
+        <v>329.457778263465</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098727</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489899</v>
+        <v>69.5213077489897</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920251</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868539</v>
+        <v>0.2440682224868533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.632350146030884</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403516</v>
+        <v>15.76506588403512</v>
       </c>
       <c r="I6" t="n">
-        <v>56.2015291506249</v>
+        <v>56.20152915062474</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.2212916475933</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316633</v>
+        <v>263.5887514316626</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721893</v>
+        <v>354.4276051721882</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658089</v>
+        <v>413.6002979658077</v>
       </c>
       <c r="N6" t="n">
-        <v>424.547067146867</v>
+        <v>424.5470671468657</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374457</v>
+        <v>388.3776244374446</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872484</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547494</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.3488976632158</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947723</v>
+        <v>30.32018801947715</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378887</v>
+        <v>6.579516597378868</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236993</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377982</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734535</v>
+        <v>41.15475366734523</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463557</v>
+        <v>96.75348224635543</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260798</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162527</v>
       </c>
       <c r="M7" t="n">
-        <v>214.519775539914</v>
+        <v>214.5197755399134</v>
       </c>
       <c r="N7" t="n">
-        <v>209.418974752849</v>
+        <v>209.4189747528484</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275349</v>
+        <v>193.4323186275344</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650514996</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235541</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054716</v>
+        <v>61.53307486054698</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391196</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830806</v>
+        <v>5.847259438830789</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656358</v>
+        <v>0.07464586517656337</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>704.1404939038093</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>606.5820696732821</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>270.3182595810212</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093083</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198428</v>
+        <v>77.89141170198354</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070467</v>
+        <v>167.9900634070456</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811909</v>
+        <v>245.6810352811895</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695377</v>
+        <v>305.3568201695361</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644793</v>
+        <v>314.9582252644777</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974627</v>
+        <v>283.9361600974612</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308272</v>
+        <v>207.483447730826</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890164</v>
+        <v>107.1520883890155</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092708</v>
+        <v>27.38366498092662</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573043</v>
+        <v>125.7473124573036</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923151</v>
+        <v>215.8732253923141</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437905</v>
+        <v>271.4662640437894</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635337</v>
+        <v>293.2053550635325</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930012</v>
+        <v>245.7813799930001</v>
       </c>
       <c r="P6" t="n">
-        <v>177.732876172919</v>
+        <v>177.7328761729182</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872844</v>
+        <v>68.38629016872784</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554484</v>
+        <v>29.98243465554438</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501498</v>
+        <v>68.57507023501441</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230898</v>
+        <v>75.59399159230836</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761582</v>
+        <v>81.73343028761522</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569214</v>
+        <v>54.9757801756916</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235245</v>
+        <v>27.78676100235197</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>572.7987818204761</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.26189970604</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>463.9858252288377</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3364854949997</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134949316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2246581.35022901</v>
+        <v>2248341.880531796</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>143.2690424640647</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>173.9484321805923</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>111.0567566117637</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>165.0938428646292</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>149.8553338379462</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425946</v>
+        <v>23.94240680425878</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>127.1471025981437</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14.56939904994083</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>63.28456194538256</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>40.05337266685375</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>37.87186229520668</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>36.88688096669654</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>240.997368846766</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>92.24247811687005</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>73.88099813908744</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -1274,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>136.8883885916663</v>
       </c>
       <c r="E10" t="n">
-        <v>12.01748395153031</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206822</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518788</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.006892987834567</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722621</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>115.4764219077088</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>101.1785556175221</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,13 +1903,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>57.24347904696681</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.0280580960838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>182.6589060852725</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>8.579726596858459</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2563,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722606</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>86.88943397770137</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>41.33703994143007</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>147.0407206186885</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>136.2892803597729</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>240.0888870346036</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>177.1006680594871</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>27.0291980517616</v>
+        <v>12.76515480631733</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>105.7906564314211</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>178.2892930985867</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097409</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="C2" t="n">
-        <v>482.8222414097409</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="D2" t="n">
-        <v>482.8222414097409</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="E2" t="n">
-        <v>482.8222414097409</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>475.8767406605374</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>286.4569556440525</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262257</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262257</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262257</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262257</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262257</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262257</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262257</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097409</v>
+        <v>224.5974673148103</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>469.7084696131274</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024219</v>
@@ -4418,43 +4418,43 @@
         <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="U3" t="n">
-        <v>637.9238066331955</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="V3" t="n">
-        <v>637.9238066331955</v>
+        <v>510.1763501874095</v>
       </c>
       <c r="W3" t="n">
-        <v>637.9238066331955</v>
+        <v>320.7565651709245</v>
       </c>
       <c r="X3" t="n">
-        <v>637.9238066331955</v>
+        <v>320.7565651709245</v>
       </c>
       <c r="Y3" t="n">
-        <v>637.9238066331955</v>
+        <v>320.7565651709245</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1185.147817799032</v>
+        <v>574.2107392306109</v>
       </c>
       <c r="C5" t="n">
-        <v>816.1853008586201</v>
+        <v>205.2482222901992</v>
       </c>
       <c r="D5" t="n">
-        <v>457.9196022518695</v>
+        <v>205.2482222901992</v>
       </c>
       <c r="E5" t="n">
-        <v>457.9196022518695</v>
+        <v>205.2482222901992</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226197</v>
+        <v>198.3027215409957</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675754</v>
+        <v>185.9270803954913</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="J5" t="n">
-        <v>111.670553901721</v>
+        <v>111.6705539017224</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746961</v>
+        <v>277.980716674699</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030736</v>
+        <v>521.2049416030786</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709144</v>
+        <v>823.5081935709209</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582747</v>
+        <v>1135.316836582756</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079234</v>
+        <v>1416.413635079244</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332752</v>
+        <v>1621.822248332763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837877</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540645</v>
+        <v>1703.718566540658</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540645</v>
+        <v>1703.718566540658</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540645</v>
+        <v>1703.718566540658</v>
       </c>
       <c r="U5" t="n">
-        <v>1575.287149774844</v>
+        <v>1703.718566540658</v>
       </c>
       <c r="V5" t="n">
-        <v>1575.287149774844</v>
+        <v>1703.718566540658</v>
       </c>
       <c r="W5" t="n">
-        <v>1575.287149774844</v>
+        <v>1350.949911270544</v>
       </c>
       <c r="X5" t="n">
-        <v>1575.287149774844</v>
+        <v>1350.949911270544</v>
       </c>
       <c r="Y5" t="n">
-        <v>1185.147817799032</v>
+        <v>960.8105792947326</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>357.9454952591358</v>
+        <v>489.2644789565796</v>
       </c>
       <c r="C6" t="n">
-        <v>183.4924659780088</v>
+        <v>489.2644789565796</v>
       </c>
       <c r="D6" t="n">
-        <v>34.55805631675754</v>
+        <v>340.3300692953283</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675754</v>
+        <v>181.0926142898728</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="J6" t="n">
-        <v>61.6678846478749</v>
+        <v>61.66788464787571</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806054</v>
+        <v>186.1577239806072</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189963</v>
+        <v>399.8722171189994</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223478</v>
+        <v>668.6238185223524</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352451</v>
+        <v>958.897120035251</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228315</v>
+        <v>1202.220686228322</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639504</v>
+        <v>1378.176233639512</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906545</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="R6" t="n">
-        <v>1431.162096209635</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="S6" t="n">
-        <v>1431.162096209635</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="T6" t="n">
-        <v>1431.162096209635</v>
+        <v>1250.338042626309</v>
       </c>
       <c r="U6" t="n">
-        <v>1431.162096209635</v>
+        <v>1250.338042626309</v>
       </c>
       <c r="V6" t="n">
-        <v>1196.009987977892</v>
+        <v>1015.185934394566</v>
       </c>
       <c r="W6" t="n">
-        <v>941.7726312496904</v>
+        <v>760.9485776663644</v>
       </c>
       <c r="X6" t="n">
-        <v>733.9211310441576</v>
+        <v>697.0247777215335</v>
       </c>
       <c r="Y6" t="n">
-        <v>526.1608322792038</v>
+        <v>489.2644789565796</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495857983</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495857983</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="D7" t="n">
-        <v>219.7024101734625</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="E7" t="n">
-        <v>181.4480038146679</v>
+        <v>181.4480038146681</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574648</v>
+        <v>64.24066662574729</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584108</v>
+        <v>132.1299861584123</v>
       </c>
       <c r="M7" t="n">
-        <v>206.968037834796</v>
+        <v>206.9680378347983</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195351</v>
+        <v>287.8841338195381</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934698</v>
+        <v>342.3101561934734</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857983</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857983</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857983</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857983</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857983</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857983</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495857983</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495857983</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495857983</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495857983</v>
+        <v>369.8190495858024</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>854.8812820495157</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="C8" t="n">
-        <v>485.918765109104</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="D8" t="n">
-        <v>448.6592893851681</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="E8" t="n">
-        <v>448.6592893851681</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>441.7137886359646</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4837,19 +4837,19 @@
         <v>1826.151173794699</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457208</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V8" t="n">
-        <v>1241.481122113637</v>
+        <v>1582.719488090895</v>
       </c>
       <c r="W8" t="n">
-        <v>1241.481122113637</v>
+        <v>1229.950832820781</v>
       </c>
       <c r="X8" t="n">
-        <v>1241.481122113637</v>
+        <v>856.4850745597009</v>
       </c>
       <c r="Y8" t="n">
-        <v>1241.481122113637</v>
+        <v>466.3457425838893</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>756.0443045908817</v>
+        <v>403.4227643481975</v>
       </c>
       <c r="C9" t="n">
-        <v>581.5912753097547</v>
+        <v>228.9697350670704</v>
       </c>
       <c r="D9" t="n">
-        <v>432.6568656485034</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="E9" t="n">
-        <v>273.4194106430479</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="F9" t="n">
-        <v>180.2451903229772</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4907,28 +4907,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1691.599776485923</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474382</v>
+        <v>1496.889454959899</v>
       </c>
       <c r="U9" t="n">
-        <v>1367.172048607646</v>
+        <v>1268.787865093164</v>
       </c>
       <c r="V9" t="n">
-        <v>1132.019940375904</v>
+        <v>1033.635756861421</v>
       </c>
       <c r="W9" t="n">
-        <v>1132.019940375904</v>
+        <v>779.3984001332194</v>
       </c>
       <c r="X9" t="n">
-        <v>1132.019940375904</v>
+        <v>779.3984001332194</v>
       </c>
       <c r="Y9" t="n">
-        <v>924.2596416109498</v>
+        <v>571.6381013682656</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>242.7819383455652</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="C10" t="n">
-        <v>73.84575541765827</v>
+        <v>328.5302436235452</v>
       </c>
       <c r="D10" t="n">
-        <v>73.84575541765827</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934482</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -4998,16 +4998,16 @@
         <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>242.7819383455652</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>242.7819383455652</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>242.7819383455652</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y10" t="n">
-        <v>242.7819383455652</v>
+        <v>497.4664265514521</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5050,16 +5050,16 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
@@ -5278,16 +5278,16 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,7 +5296,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5363,10 +5363,10 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851617</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572548</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D16" t="n">
-        <v>377.655612744919</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>377.655612744919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5451,37 +5451,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832658</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855599</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199797</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.55619999391</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956949</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058932</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154014</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="17">
@@ -5542,13 +5542,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5600,22 +5600,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5682,43 +5682,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770323</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C22" t="n">
-        <v>634.3345878491255</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072721</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="23">
@@ -5983,37 +5983,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.517090583878</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6454,22 +6454,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703114</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424045</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
         <v>484.8112968429802</v>
@@ -6618,55 +6618,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1539.859873431788</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1250.442703394828</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>801.6605733532801</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6940,7 +6940,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1445.871826547026</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1156.454656510065</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>928.4651056120481</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>707.672526468518</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,10 +7201,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>961.4446166151475</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>792.5084336872407</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578601</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1143.093081445387</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,13 +7648,13 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.3544215660705</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C46" t="n">
-        <v>612.4182386381636</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2016.97235043849</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.897123782688</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1473.212635576801</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W46" t="n">
-        <v>1183.79546553984</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.79546553984</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.0028863963103</v>
+        <v>1239.261780432</v>
       </c>
     </row>
   </sheetData>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260414</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>63.36835372228709</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>29.94462611522241</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>124.531099771515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>9.131767663154847</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5874149221285734</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>103.8640922513185</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>171.2522535850788</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>40.23897475306318</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>138.8202214113358</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.2784330767823</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>105.0969227051395</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>106.465793928349</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>30.95754073885496</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>12.0487562892244</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>109.4223302771039</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5862749664508</v>
+        <v>135.850318211895</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>40.6433062151481</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>39.11615722870158</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822395.1988153139</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.949767504</v>
-      </c>
       <c r="I2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253103</v>
+        <v>270592.3620253137</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231947</v>
+        <v>115410.0540231914</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854462</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881921</v>
+        <v>62913.63765881995</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197536</v>
+        <v>27875.2536219746</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263468</v>
+        <v>206604.4229263458</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189187</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189186</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26438,16 +26438,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="K4" t="n">
+        <v>16046.58397189201</v>
+      </c>
+      <c r="L4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16046.58397189193</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936803</v>
+        <v>76435.73471936829</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311097.9403683764</v>
+        <v>-311097.9403683765</v>
       </c>
       <c r="C6" t="n">
-        <v>62148.80772718748</v>
+        <v>62148.80772718477</v>
       </c>
       <c r="D6" t="n">
-        <v>240969.2014302474</v>
+        <v>240969.2014302508</v>
       </c>
       <c r="E6" t="n">
-        <v>-113599.750856917</v>
+        <v>-113287.1095279957</v>
       </c>
       <c r="F6" t="n">
-        <v>487843.4567173484</v>
+        <v>488156.0980462695</v>
       </c>
       <c r="G6" t="n">
-        <v>487843.4567173481</v>
+        <v>488156.0980462696</v>
       </c>
       <c r="H6" t="n">
-        <v>487843.4567173479</v>
+        <v>488156.0980462694</v>
       </c>
       <c r="I6" t="n">
-        <v>487843.456717348</v>
+        <v>488156.0980462695</v>
       </c>
       <c r="J6" t="n">
-        <v>438778.5119888035</v>
+        <v>439091.1533177249</v>
       </c>
       <c r="K6" t="n">
-        <v>424929.8190585288</v>
+        <v>425242.4603874494</v>
       </c>
       <c r="L6" t="n">
-        <v>459968.2030953727</v>
+        <v>460280.8444242952</v>
       </c>
       <c r="M6" t="n">
-        <v>330697.0761657499</v>
+        <v>331009.7174946719</v>
       </c>
       <c r="N6" t="n">
-        <v>487843.4567173479</v>
+        <v>488156.0980462693</v>
       </c>
       <c r="O6" t="n">
-        <v>487843.4567173479</v>
+        <v>488156.0980462697</v>
       </c>
       <c r="P6" t="n">
-        <v>487843.4567173479</v>
+        <v>488156.0980462694</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950601</v>
+        <v>758.8996292950628</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594693</v>
+        <v>431.9757039594724</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26807,19 +26807,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821554</v>
+        <v>210.429688382158</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262403</v>
+        <v>94.8110352426213</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039899</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931493</v>
+        <v>244.4501167931523</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.1392527666908</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734854</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793149</v>
+        <v>244.450116793152</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666941</v>
+        <v>110.139252766691</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931493</v>
+        <v>244.4501167931523</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.1392527666908</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734854</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046874</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>173.6247836421575</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>77.22082838443805</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121489</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,25 +27463,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27514,13 +27514,13 @@
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>114.8070117983272</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>67.70674428479612</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459948</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849672</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410616</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>158.3749222335273</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760064</v>
+        <v>92.85788772760021</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>123.954482087206</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246134</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937525</v>
+        <v>43.32085084937506</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.76120725080732</v>
+        <v>44.33060630074779</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>142.4884232580949</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>127.1934484317741</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>108.5621003513625</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304068</v>
+        <v>30.24193919304032</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589177</v>
+        <v>36.91115760589136</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>317.7961606539864</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>86.75488962336888</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27940,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>52.82673427651383</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>63.69401575421179</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27994,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>11.72708442654601</v>
       </c>
       <c r="E10" t="n">
-        <v>134.4164786950388</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28089,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.357833993573971e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.611981708032941e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-5.439862627652621e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-5.226490029168309e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-7.382758598940444e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28754,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29283,10 +29283,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="F26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31077,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31138,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31147,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085666</v>
+        <v>3.050852781085677</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429359</v>
+        <v>31.2445460442937</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286698</v>
+        <v>258.9373162286707</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520262</v>
+        <v>388.0799144520275</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511767</v>
+        <v>481.4474502511785</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968089</v>
+        <v>535.7030533968108</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610686</v>
+        <v>544.3712888610705</v>
       </c>
       <c r="O5" t="n">
-        <v>514.034371519148</v>
+        <v>514.0343715191498</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860955</v>
+        <v>438.7164434860971</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.457778263465</v>
+        <v>329.4577782634662</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098727</v>
+        <v>191.6431310098733</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489897</v>
+        <v>69.52130774898994</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920251</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868533</v>
+        <v>0.2440682224868541</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030884</v>
+        <v>1.63235014603089</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403512</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062474</v>
+        <v>56.20152915062494</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475933</v>
+        <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316626</v>
+        <v>263.5887514316635</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721882</v>
+        <v>354.4276051721895</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658077</v>
+        <v>413.6002979658092</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468657</v>
+        <v>424.5470671468673</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374446</v>
+        <v>388.3776244374459</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872484</v>
+        <v>311.7072835872495</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547494</v>
+        <v>208.3680642547501</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632158</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947715</v>
+        <v>30.32018801947725</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378868</v>
+        <v>6.579516597378891</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236993</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377982</v>
+        <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734523</v>
+        <v>41.15475366734538</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635543</v>
+        <v>96.75348224635579</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>158.9956928260803</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162527</v>
+        <v>203.4597465162534</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399134</v>
+        <v>214.5197755399142</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528484</v>
+        <v>209.4189747528492</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275344</v>
+        <v>193.4323186275351</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514996</v>
+        <v>165.5147650515002</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054698</v>
+        <v>61.5330748605472</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391196</v>
+        <v>23.84935392391204</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830789</v>
+        <v>5.84725943883081</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656337</v>
+        <v>0.07464586517656363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32083,13 +32083,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198354</v>
+        <v>77.89141170198445</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070456</v>
+        <v>167.990063407047</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811895</v>
+        <v>245.6810352811912</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695361</v>
+        <v>305.3568201695381</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644777</v>
+        <v>314.9582252644796</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974612</v>
+        <v>283.936160097463</v>
       </c>
       <c r="P5" t="n">
-        <v>207.483447730826</v>
+        <v>207.4834477308275</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890155</v>
+        <v>107.1520883890167</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092662</v>
+        <v>27.38366498092719</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573036</v>
+        <v>125.7473124573045</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923141</v>
+        <v>215.8732253923154</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437894</v>
+        <v>271.4662640437909</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635325</v>
+        <v>293.2053550635339</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930001</v>
+        <v>245.7813799930015</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729182</v>
+        <v>177.7328761729192</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872784</v>
+        <v>68.38629016872858</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554438</v>
+        <v>29.98243465554495</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501441</v>
+        <v>68.57507023501512</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230836</v>
+        <v>75.59399159230912</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761522</v>
+        <v>81.73343028761599</v>
       </c>
       <c r="O7" t="n">
-        <v>54.9757801756916</v>
+        <v>54.97578017569228</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235197</v>
+        <v>27.78676100235256</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35819,7 +35819,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.26189970604</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010482</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
